--- a/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
@@ -93,10 +93,10 @@
     <t>Guyane</t>
   </si>
   <si>
-    <t>1164.0</t>
-  </si>
-  <si>
-    <t>2020-10-31</t>
+    <t>1347.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
   </si>
   <si>
     <t>0</t>
@@ -114,7 +114,7 @@
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>26238.0</t>
+    <t>37245.0</t>
   </si>
   <si>
     <t>27</t>
@@ -123,7 +123,7 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>8421.0</t>
+    <t>11968.0</t>
   </si>
   <si>
     <t>44</t>
@@ -132,7 +132,7 @@
     <t>Grand Est</t>
   </si>
   <si>
-    <t>13828.0</t>
+    <t>18364.0</t>
   </si>
   <si>
     <t>53</t>
@@ -141,7 +141,7 @@
     <t>Bretagne</t>
   </si>
   <si>
-    <t>49133.0</t>
+    <t>61915.0</t>
   </si>
   <si>
     <t>76</t>
@@ -150,7 +150,7 @@
     <t>Occitanie</t>
   </si>
   <si>
-    <t>12416.0</t>
+    <t>16202.0</t>
   </si>
   <si>
     <t>93</t>
@@ -159,7 +159,7 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>2721.0</t>
+    <t>3936.0</t>
   </si>
 </sst>
 </file>

--- a/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="197">
   <si>
     <t>mesure</t>
   </si>
@@ -87,25 +87,172 @@
     <t>nb-utilisateurs-pass-culture</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>1233.0</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>9898.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>utilisateurs</t>
+  </si>
+  <si>
+    <t>Apprendre à nager et à circuler à vélo en toute sécurité</t>
+  </si>
+  <si>
+    <t>Nombre d'enfants ayant suivi un cycle d’Aisance Aquatique</t>
+  </si>
+  <si>
+    <t>nb-cycle-aisance-aquatique</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>622.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>enfants</t>
+  </si>
+  <si>
+    <t>Nombre d’attestations « savoir rouler à vélo » délivrées</t>
+  </si>
+  <si>
+    <t>nb-attestations-savoir-rouler-velo</t>
+  </si>
+  <si>
+    <t>466.0</t>
+  </si>
+  <si>
+    <t>1437.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>attestations</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>948.0</t>
+  </si>
+  <si>
+    <t>8882.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>464.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>1130.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
     <t>Guyane</t>
   </si>
   <si>
-    <t>1347.0</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>utilisateurs</t>
+    <t>1618.0</t>
+  </si>
+  <si>
+    <t>8952.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>612.0</t>
+  </si>
+  <si>
+    <t>1333.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>3858.0</t>
+  </si>
+  <si>
+    <t>24238.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>1558.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3108.0</t>
+  </si>
+  <si>
+    <t>3579.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>740.0</t>
+  </si>
+  <si>
+    <t>1771.0</t>
   </si>
   <si>
     <t>11</t>
@@ -114,7 +261,64 @@
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>37245.0</t>
+    <t>126838.0</t>
+  </si>
+  <si>
+    <t>280188.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>1802.0</t>
+  </si>
+  <si>
+    <t>17262.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>5837.0</t>
+  </si>
+  <si>
+    <t>38007.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>17120.0</t>
+  </si>
+  <si>
+    <t>55291.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>3301.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>3592.0</t>
+  </si>
+  <si>
+    <t>7554.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
   </si>
   <si>
     <t>27</t>
@@ -123,7 +327,76 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>11968.0</t>
+    <t>26132.0</t>
+  </si>
+  <si>
+    <t>62023.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>3408.0</t>
+  </si>
+  <si>
+    <t>2601.0</t>
+  </si>
+  <si>
+    <t>7730.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>21603.0</t>
+  </si>
+  <si>
+    <t>77094.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>4294.0</t>
+  </si>
+  <si>
+    <t>1572.0</t>
+  </si>
+  <si>
+    <t>9687.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>47619.0</t>
+  </si>
+  <si>
+    <t>148568.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>7084.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>3045.0</t>
+  </si>
+  <si>
+    <t>18776.0</t>
   </si>
   <si>
     <t>44</t>
@@ -132,7 +405,52 @@
     <t>Grand Est</t>
   </si>
   <si>
-    <t>18364.0</t>
+    <t>48674.0</t>
+  </si>
+  <si>
+    <t>125311.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>886.0</t>
+  </si>
+  <si>
+    <t>7413.0</t>
+  </si>
+  <si>
+    <t>3658.0</t>
+  </si>
+  <si>
+    <t>15495.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>24267.0</t>
+  </si>
+  <si>
+    <t>87781.0</t>
+  </si>
+  <si>
+    <t>5173.0</t>
+  </si>
+  <si>
+    <t>1950.0</t>
+  </si>
+  <si>
+    <t>11745.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
   </si>
   <si>
     <t>53</t>
@@ -141,7 +459,58 @@
     <t>Bretagne</t>
   </si>
   <si>
-    <t>61915.0</t>
+    <t>17320.0</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>76565.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>4269.0</t>
+  </si>
+  <si>
+    <t>2715.0</t>
+  </si>
+  <si>
+    <t>9778.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>37187.0</t>
+  </si>
+  <si>
+    <t>131340.0</t>
+  </si>
+  <si>
+    <t>449.0</t>
+  </si>
+  <si>
+    <t>7002.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>8409.0</t>
+  </si>
+  <si>
+    <t>16043.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
   </si>
   <si>
     <t>76</t>
@@ -150,7 +519,58 @@
     <t>Occitanie</t>
   </si>
   <si>
-    <t>16202.0</t>
+    <t>48809.0</t>
+  </si>
+  <si>
+    <t>133466.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>1159.0</t>
+  </si>
+  <si>
+    <t>8811.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>3602.0</t>
+  </si>
+  <si>
+    <t>16508.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>50519.0</t>
+  </si>
+  <si>
+    <t>182811.0</t>
+  </si>
+  <si>
+    <t>1488.0</t>
+  </si>
+  <si>
+    <t>10984.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>9244.0</t>
+  </si>
+  <si>
+    <t>23902.0</t>
   </si>
   <si>
     <t>93</t>
@@ -159,7 +579,49 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>3936.0</t>
+    <t>34161.0</t>
+  </si>
+  <si>
+    <t>109608.0</t>
+  </si>
+  <si>
+    <t>312.0</t>
+  </si>
+  <si>
+    <t>6660.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1622.0</t>
+  </si>
+  <si>
+    <t>14742.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>730.0</t>
+  </si>
+  <si>
+    <t>5991.0</t>
+  </si>
+  <si>
+    <t>343.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>783.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
   </si>
 </sst>
 </file>
@@ -491,31 +953,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,13 +1203,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -597,10 +1221,101 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>115</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -608,21 +1323,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,13 +1389,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -704,10 +1407,101 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
-        <v>24</v>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -715,21 +1509,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -793,13 +1575,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -811,10 +1593,101 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -822,21 +1695,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -900,16 +1761,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -918,10 +1779,101 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>142</v>
+      </c>
+      <c r="L2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -929,33 +1881,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1019,13 +1947,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1037,10 +1965,101 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>152</v>
+      </c>
+      <c r="L2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1048,33 +2067,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1138,13 +2133,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1156,10 +2151,101 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
-        <v>24</v>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1167,21 +2253,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1245,13 +2319,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1263,10 +2337,1731 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1276,12 +4071,186 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="211">
   <si>
     <t>mesure</t>
   </si>
@@ -93,10 +93,10 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>1233.0</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
+    <t>1995.0</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
   </si>
   <si>
     <t>0</t>
@@ -108,7 +108,7 @@
     <t>9898.0</t>
   </si>
   <si>
-    <t>12.0</t>
+    <t>20.0</t>
   </si>
   <si>
     <t>2022-12-31</t>
@@ -126,475 +126,520 @@
     <t>nb-cycle-aisance-aquatique</t>
   </si>
   <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
+    <t>2363.0</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
   </si>
   <si>
     <t>622.0</t>
   </si>
   <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>enfants</t>
+  </si>
+  <si>
+    <t>Nombre d’attestations « savoir rouler à vélo » délivrées</t>
+  </si>
+  <si>
+    <t>nb-attestations-savoir-rouler-velo</t>
+  </si>
+  <si>
+    <t>548.0</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>1437.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>attestations</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>1680.0</t>
+  </si>
+  <si>
+    <t>8882.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>700.0</t>
+  </si>
+  <si>
+    <t>464.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>1130.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>1909.0</t>
+  </si>
+  <si>
+    <t>8952.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>612.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1333.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>8664.0</t>
+  </si>
+  <si>
+    <t>24238.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>841.0</t>
+  </si>
+  <si>
+    <t>1558.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>3108.0</t>
+  </si>
+  <si>
+    <t>3579.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>9437.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>740.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1771.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>182381.0</t>
+  </si>
+  <si>
+    <t>280188.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>4664.0</t>
+  </si>
+  <si>
+    <t>17262.0</t>
+  </si>
+  <si>
     <t>27.0</t>
   </si>
   <si>
-    <t>enfants</t>
-  </si>
-  <si>
-    <t>Nombre d’attestations « savoir rouler à vélo » délivrées</t>
-  </si>
-  <si>
-    <t>nb-attestations-savoir-rouler-velo</t>
-  </si>
-  <si>
-    <t>466.0</t>
-  </si>
-  <si>
-    <t>1437.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>attestations</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>948.0</t>
-  </si>
-  <si>
-    <t>8882.0</t>
+    <t>6916.0</t>
+  </si>
+  <si>
+    <t>38007.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>27410.0</t>
+  </si>
+  <si>
+    <t>55291.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>463.0</t>
+  </si>
+  <si>
+    <t>3301.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>5001.0</t>
+  </si>
+  <si>
+    <t>7554.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>36691.0</t>
+  </si>
+  <si>
+    <t>62023.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>377.0</t>
+  </si>
+  <si>
+    <t>3408.0</t>
   </si>
   <si>
     <t>11.0</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>464.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>1130.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>1618.0</t>
-  </si>
-  <si>
-    <t>8952.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>612.0</t>
-  </si>
-  <si>
-    <t>1333.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>3858.0</t>
-  </si>
-  <si>
-    <t>24238.0</t>
+    <t>3045.0</t>
+  </si>
+  <si>
+    <t>7730.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>35057.0</t>
+  </si>
+  <si>
+    <t>77094.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>397.0</t>
+  </si>
+  <si>
+    <t>4294.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>3430.0</t>
+  </si>
+  <si>
+    <t>9687.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>75702.0</t>
+  </si>
+  <si>
+    <t>148568.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>606.0</t>
+  </si>
+  <si>
+    <t>7084.0</t>
+  </si>
+  <si>
+    <t>3953.0</t>
+  </si>
+  <si>
+    <t>18776.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>70729.0</t>
+  </si>
+  <si>
+    <t>125311.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>1100.0</t>
+  </si>
+  <si>
+    <t>7413.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>4821.0</t>
+  </si>
+  <si>
+    <t>15495.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>41560.0</t>
+  </si>
+  <si>
+    <t>87781.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>809.0</t>
+  </si>
+  <si>
+    <t>5173.0</t>
   </si>
   <si>
     <t>16.0</t>
   </si>
   <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>1558.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3108.0</t>
-  </si>
-  <si>
-    <t>3579.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>740.0</t>
-  </si>
-  <si>
-    <t>1771.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>126838.0</t>
-  </si>
-  <si>
-    <t>280188.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>1802.0</t>
-  </si>
-  <si>
-    <t>17262.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>5837.0</t>
-  </si>
-  <si>
-    <t>38007.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>17120.0</t>
-  </si>
-  <si>
-    <t>55291.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>3301.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>3592.0</t>
-  </si>
-  <si>
-    <t>7554.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>26132.0</t>
-  </si>
-  <si>
-    <t>62023.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>3408.0</t>
-  </si>
-  <si>
-    <t>2601.0</t>
-  </si>
-  <si>
-    <t>7730.0</t>
+    <t>2838.0</t>
+  </si>
+  <si>
+    <t>11745.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>89565.0</t>
+  </si>
+  <si>
+    <t>76565.0</t>
+  </si>
+  <si>
+    <t>4269.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>3311.0</t>
+  </si>
+  <si>
+    <t>9778.0</t>
   </si>
   <si>
     <t>34.0</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>21603.0</t>
-  </si>
-  <si>
-    <t>77094.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>4294.0</t>
-  </si>
-  <si>
-    <t>1572.0</t>
-  </si>
-  <si>
-    <t>9687.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>47619.0</t>
-  </si>
-  <si>
-    <t>148568.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>7084.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>3045.0</t>
-  </si>
-  <si>
-    <t>18776.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>48674.0</t>
-  </si>
-  <si>
-    <t>125311.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>886.0</t>
-  </si>
-  <si>
-    <t>7413.0</t>
-  </si>
-  <si>
-    <t>3658.0</t>
-  </si>
-  <si>
-    <t>15495.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>24267.0</t>
-  </si>
-  <si>
-    <t>87781.0</t>
-  </si>
-  <si>
-    <t>5173.0</t>
-  </si>
-  <si>
-    <t>1950.0</t>
-  </si>
-  <si>
-    <t>11745.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>17320.0</t>
-  </si>
-  <si>
-    <t>2021-02-28</t>
-  </si>
-  <si>
-    <t>76565.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>4269.0</t>
-  </si>
-  <si>
-    <t>2715.0</t>
-  </si>
-  <si>
-    <t>9778.0</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>37187.0</t>
+    <t>61119.0</t>
   </si>
   <si>
     <t>131340.0</t>
   </si>
   <si>
-    <t>449.0</t>
+    <t>881.0</t>
   </si>
   <si>
     <t>7002.0</t>
   </si>
   <si>
+    <t>9927.0</t>
+  </si>
+  <si>
+    <t>16043.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>73094.0</t>
+  </si>
+  <si>
+    <t>133466.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>1612.0</t>
+  </si>
+  <si>
+    <t>8811.0</t>
+  </si>
+  <si>
+    <t>5676.0</t>
+  </si>
+  <si>
+    <t>16508.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>83928.0</t>
+  </si>
+  <si>
+    <t>182811.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>2310.0</t>
+  </si>
+  <si>
+    <t>10984.0</t>
+  </si>
+  <si>
+    <t>11916.0</t>
+  </si>
+  <si>
+    <t>23902.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>53173.0</t>
+  </si>
+  <si>
+    <t>109608.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>417.0</t>
+  </si>
+  <si>
+    <t>6660.0</t>
+  </si>
+  <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>8409.0</t>
-  </si>
-  <si>
-    <t>16043.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>48809.0</t>
-  </si>
-  <si>
-    <t>133466.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>1159.0</t>
-  </si>
-  <si>
-    <t>8811.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>3602.0</t>
-  </si>
-  <si>
-    <t>16508.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>50519.0</t>
-  </si>
-  <si>
-    <t>182811.0</t>
-  </si>
-  <si>
-    <t>1488.0</t>
-  </si>
-  <si>
-    <t>10984.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>9244.0</t>
-  </si>
-  <si>
-    <t>23902.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>34161.0</t>
-  </si>
-  <si>
-    <t>109608.0</t>
-  </si>
-  <si>
-    <t>312.0</t>
-  </si>
-  <si>
-    <t>6660.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>1622.0</t>
+    <t>1923.0</t>
   </si>
   <si>
     <t>14742.0</t>
@@ -606,7 +651,7 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>730.0</t>
+    <t>1324.0</t>
   </si>
   <si>
     <t>5991.0</t>
@@ -619,9 +664,6 @@
   </si>
   <si>
     <t>783.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1153,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -1120,16 +1162,16 @@
         <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1203,13 +1245,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1221,13 +1263,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1247,13 +1289,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1262,13 +1304,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -1288,34 +1330,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1389,13 +1431,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1407,13 +1449,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1433,13 +1475,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1448,13 +1490,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -1474,34 +1516,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="L4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1575,13 +1617,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1593,13 +1635,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1619,13 +1661,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1634,13 +1676,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -1660,34 +1702,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1761,16 +1803,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1779,13 +1821,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1805,13 +1847,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1820,13 +1862,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -1846,34 +1888,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L4" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1947,13 +1989,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1965,13 +2007,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1991,13 +2033,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2006,13 +2048,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -2032,34 +2074,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L4" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2133,13 +2175,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2151,13 +2193,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2177,13 +2219,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2192,13 +2234,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -2218,34 +2260,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="L4" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2319,13 +2361,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2337,13 +2379,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2363,13 +2405,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2378,13 +2420,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M3" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -2404,34 +2446,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L4" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2505,13 +2547,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2523,13 +2565,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2549,13 +2591,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2564,13 +2606,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M3" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -2590,34 +2632,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="L4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2691,13 +2733,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2709,13 +2751,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2735,13 +2777,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2750,13 +2792,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -2776,34 +2818,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L4" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M4" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2877,13 +2919,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2895,13 +2937,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2921,13 +2963,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2936,13 +2978,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -2962,34 +3004,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3063,13 +3105,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3081,13 +3123,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3107,13 +3149,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3122,13 +3164,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -3148,34 +3190,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3249,13 +3291,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3267,13 +3309,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3293,13 +3335,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3308,13 +3350,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -3334,34 +3376,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3371,7 +3413,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3426,43 +3468,46 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3470,40 +3515,81 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3577,13 +3663,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3595,13 +3681,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3621,13 +3707,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3636,13 +3722,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -3662,34 +3748,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3763,13 +3849,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3781,13 +3867,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3807,13 +3893,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3822,13 +3908,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -3848,34 +3934,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3949,13 +4035,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3967,13 +4053,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3993,13 +4079,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4008,13 +4094,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -4034,34 +4120,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4135,13 +4221,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4153,13 +4239,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4179,13 +4265,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4194,13 +4280,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -4220,34 +4306,34 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="212">
   <si>
     <t>mesure</t>
   </si>
@@ -102,7 +102,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>2017-01-01</t>
+    <t>2019-01-31</t>
   </si>
   <si>
     <t>9898.0</t>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
   </si>
   <si>
     <t>622.0</t>
@@ -1117,20 +1120,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
         <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1138,10 +1144,10 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1150,28 +1156,31 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1245,13 +1254,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1263,13 +1272,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1289,13 +1298,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1303,20 +1312,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1324,40 +1336,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1431,13 +1446,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1449,13 +1464,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1475,13 +1490,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1489,20 +1504,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1510,40 +1528,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1617,13 +1638,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1635,13 +1656,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1661,13 +1682,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1675,20 +1696,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1696,40 +1720,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1803,13 +1830,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1821,13 +1848,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1847,13 +1874,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1861,20 +1888,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1882,40 +1912,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1989,13 +2022,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2007,13 +2040,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2033,13 +2066,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2047,20 +2080,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2068,40 +2104,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2175,13 +2214,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2193,13 +2232,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2219,13 +2258,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2233,20 +2272,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2254,40 +2296,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2361,13 +2406,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2379,13 +2424,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2405,13 +2450,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2419,20 +2464,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2440,40 +2488,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2547,13 +2598,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2565,13 +2616,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2591,13 +2642,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2605,20 +2656,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2626,40 +2680,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2733,13 +2790,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2751,13 +2808,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2777,13 +2834,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2791,20 +2848,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2812,40 +2872,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2919,13 +2982,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2937,13 +3000,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2963,13 +3026,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2977,20 +3040,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2998,40 +3064,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3105,13 +3174,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3123,13 +3192,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3149,13 +3218,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3163,20 +3232,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3184,40 +3256,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
         <v>62</v>
       </c>
-      <c r="M4" t="s">
-        <v>61</v>
-      </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3291,13 +3366,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3309,13 +3384,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3335,13 +3410,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3349,20 +3424,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3370,40 +3448,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3477,13 +3558,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3495,13 +3576,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3521,13 +3602,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3535,20 +3616,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3556,40 +3640,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3663,13 +3750,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3681,13 +3768,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3707,13 +3794,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3721,20 +3808,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3742,40 +3832,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3849,13 +3942,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3867,13 +3960,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3893,13 +3986,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3907,20 +4000,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3928,40 +4024,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4035,13 +4134,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4053,13 +4152,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4079,13 +4178,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4093,20 +4192,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4114,40 +4216,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4221,13 +4326,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4239,13 +4344,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4265,13 +4370,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4279,20 +4384,23 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4300,40 +4408,43 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="262">
   <si>
     <t>mesure</t>
   </si>
@@ -93,19 +93,22 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
     <t>1995.0</t>
   </si>
   <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2019-01-31</t>
-  </si>
-  <si>
-    <t>9898.0</t>
+    <t>9898</t>
   </si>
   <si>
     <t>20.0</t>
@@ -126,16 +129,19 @@
     <t>nb-cycle-aisance-aquatique</t>
   </si>
   <si>
+    <t>2363</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
     <t>2363.0</t>
   </si>
   <si>
-    <t>2021-10-31</t>
-  </si>
-  <si>
-    <t>2019-03-31</t>
-  </si>
-  <si>
-    <t>622.0</t>
+    <t>622</t>
   </si>
   <si>
     <t>100.0</t>
@@ -150,13 +156,16 @@
     <t>nb-attestations-savoir-rouler-velo</t>
   </si>
   <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
     <t>548.0</t>
   </si>
   <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>1437.0</t>
+    <t>1437</t>
   </si>
   <si>
     <t>38.0</t>
@@ -171,25 +180,34 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>1680</t>
+  </si>
+  <si>
     <t>1680.0</t>
   </si>
   <si>
-    <t>8882.0</t>
+    <t>8882</t>
   </si>
   <si>
     <t>19.0</t>
   </si>
   <si>
+    <t>700</t>
+  </si>
+  <si>
     <t>700.0</t>
   </si>
   <si>
-    <t>464.0</t>
+    <t>464</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
   <si>
     <t>90.0</t>
   </si>
   <si>
-    <t>1130.0</t>
+    <t>1130</t>
   </si>
   <si>
     <t>8.0</t>
@@ -201,19 +219,25 @@
     <t>Guyane</t>
   </si>
   <si>
+    <t>1909</t>
+  </si>
+  <si>
     <t>1909.0</t>
   </si>
   <si>
-    <t>8952.0</t>
+    <t>8952</t>
   </si>
   <si>
     <t>21.0</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>60.0</t>
   </si>
   <si>
-    <t>612.0</t>
+    <t>612</t>
   </si>
   <si>
     <t>10.0</t>
@@ -222,7 +246,7 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>1333.0</t>
+    <t>1333</t>
   </si>
   <si>
     <t>04</t>
@@ -231,28 +255,37 @@
     <t>La Réunion</t>
   </si>
   <si>
+    <t>8664</t>
+  </si>
+  <si>
     <t>8664.0</t>
   </si>
   <si>
-    <t>24238.0</t>
+    <t>24238</t>
   </si>
   <si>
     <t>36.0</t>
   </si>
   <si>
+    <t>841</t>
+  </si>
+  <si>
     <t>841.0</t>
   </si>
   <si>
-    <t>1558.0</t>
+    <t>1558</t>
   </si>
   <si>
     <t>54.0</t>
   </si>
   <si>
+    <t>3108</t>
+  </si>
+  <si>
     <t>3108.0</t>
   </si>
   <si>
-    <t>3579.0</t>
+    <t>3579</t>
   </si>
   <si>
     <t>87.0</t>
@@ -264,25 +297,31 @@
     <t>Mayotte</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>231.0</t>
   </si>
   <si>
-    <t>9437.0</t>
+    <t>9437</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>22.0</t>
   </si>
   <si>
-    <t>740.0</t>
+    <t>740</t>
   </si>
   <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>1771.0</t>
+    <t>1771</t>
   </si>
   <si>
     <t>11</t>
@@ -291,28 +330,37 @@
     <t>Île-de-France</t>
   </si>
   <si>
+    <t>182381</t>
+  </si>
+  <si>
     <t>182381.0</t>
   </si>
   <si>
-    <t>280188.0</t>
+    <t>280188</t>
   </si>
   <si>
     <t>65.0</t>
   </si>
   <si>
+    <t>4664</t>
+  </si>
+  <si>
     <t>4664.0</t>
   </si>
   <si>
-    <t>17262.0</t>
+    <t>17262</t>
   </si>
   <si>
     <t>27.0</t>
   </si>
   <si>
+    <t>6916</t>
+  </si>
+  <si>
     <t>6916.0</t>
   </si>
   <si>
-    <t>38007.0</t>
+    <t>38007</t>
   </si>
   <si>
     <t>18.0</t>
@@ -324,28 +372,37 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
+    <t>27410</t>
+  </si>
+  <si>
     <t>27410.0</t>
   </si>
   <si>
-    <t>55291.0</t>
+    <t>55291</t>
   </si>
   <si>
     <t>50.0</t>
   </si>
   <si>
+    <t>463</t>
+  </si>
+  <si>
     <t>463.0</t>
   </si>
   <si>
-    <t>3301.0</t>
+    <t>3301</t>
   </si>
   <si>
     <t>14.0</t>
   </si>
   <si>
+    <t>5001</t>
+  </si>
+  <si>
     <t>5001.0</t>
   </si>
   <si>
-    <t>7554.0</t>
+    <t>7554</t>
   </si>
   <si>
     <t>66.0</t>
@@ -357,28 +414,37 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
+    <t>36691</t>
+  </si>
+  <si>
     <t>36691.0</t>
   </si>
   <si>
-    <t>62023.0</t>
+    <t>62023</t>
   </si>
   <si>
     <t>59.0</t>
   </si>
   <si>
+    <t>377</t>
+  </si>
+  <si>
     <t>377.0</t>
   </si>
   <si>
-    <t>3408.0</t>
+    <t>3408</t>
   </si>
   <si>
     <t>11.0</t>
   </si>
   <si>
+    <t>3045</t>
+  </si>
+  <si>
     <t>3045.0</t>
   </si>
   <si>
-    <t>7730.0</t>
+    <t>7730</t>
   </si>
   <si>
     <t>39.0</t>
@@ -390,28 +456,37 @@
     <t>Normandie</t>
   </si>
   <si>
+    <t>35057</t>
+  </si>
+  <si>
     <t>35057.0</t>
   </si>
   <si>
-    <t>77094.0</t>
+    <t>77094</t>
   </si>
   <si>
     <t>45.0</t>
   </si>
   <si>
+    <t>397</t>
+  </si>
+  <si>
     <t>397.0</t>
   </si>
   <si>
-    <t>4294.0</t>
+    <t>4294</t>
   </si>
   <si>
     <t>9.0</t>
   </si>
   <si>
+    <t>3430</t>
+  </si>
+  <si>
     <t>3430.0</t>
   </si>
   <si>
-    <t>9687.0</t>
+    <t>9687</t>
   </si>
   <si>
     <t>35.0</t>
@@ -423,25 +498,34 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
+    <t>75702</t>
+  </si>
+  <si>
     <t>75702.0</t>
   </si>
   <si>
-    <t>148568.0</t>
+    <t>148568</t>
   </si>
   <si>
     <t>51.0</t>
   </si>
   <si>
+    <t>606</t>
+  </si>
+  <si>
     <t>606.0</t>
   </si>
   <si>
-    <t>7084.0</t>
+    <t>7084</t>
+  </si>
+  <si>
+    <t>3953</t>
   </si>
   <si>
     <t>3953.0</t>
   </si>
   <si>
-    <t>18776.0</t>
+    <t>18776</t>
   </si>
   <si>
     <t>44</t>
@@ -450,28 +534,37 @@
     <t>Grand Est</t>
   </si>
   <si>
+    <t>70729</t>
+  </si>
+  <si>
     <t>70729.0</t>
   </si>
   <si>
-    <t>125311.0</t>
+    <t>125311</t>
   </si>
   <si>
     <t>56.0</t>
   </si>
   <si>
+    <t>1100</t>
+  </si>
+  <si>
     <t>1100.0</t>
   </si>
   <si>
-    <t>7413.0</t>
+    <t>7413</t>
   </si>
   <si>
     <t>15.0</t>
   </si>
   <si>
+    <t>4821</t>
+  </si>
+  <si>
     <t>4821.0</t>
   </si>
   <si>
-    <t>15495.0</t>
+    <t>15495</t>
   </si>
   <si>
     <t>31.0</t>
@@ -483,28 +576,37 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
+    <t>41560</t>
+  </si>
+  <si>
     <t>41560.0</t>
   </si>
   <si>
-    <t>87781.0</t>
+    <t>87781</t>
   </si>
   <si>
     <t>47.0</t>
   </si>
   <si>
+    <t>809</t>
+  </si>
+  <si>
     <t>809.0</t>
   </si>
   <si>
-    <t>5173.0</t>
+    <t>5173</t>
   </si>
   <si>
     <t>16.0</t>
   </si>
   <si>
+    <t>2838</t>
+  </si>
+  <si>
     <t>2838.0</t>
   </si>
   <si>
-    <t>11745.0</t>
+    <t>11745</t>
   </si>
   <si>
     <t>24.0</t>
@@ -516,22 +618,28 @@
     <t>Bretagne</t>
   </si>
   <si>
+    <t>89565</t>
+  </si>
+  <si>
     <t>89565.0</t>
   </si>
   <si>
-    <t>76565.0</t>
-  </si>
-  <si>
-    <t>4269.0</t>
+    <t>76565</t>
+  </si>
+  <si>
+    <t>4269</t>
   </si>
   <si>
     <t>13.0</t>
   </si>
   <si>
+    <t>3311</t>
+  </si>
+  <si>
     <t>3311.0</t>
   </si>
   <si>
-    <t>9778.0</t>
+    <t>9778</t>
   </si>
   <si>
     <t>34.0</t>
@@ -543,22 +651,31 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
+    <t>61119</t>
+  </si>
+  <si>
     <t>61119.0</t>
   </si>
   <si>
-    <t>131340.0</t>
+    <t>131340</t>
+  </si>
+  <si>
+    <t>881</t>
   </si>
   <si>
     <t>881.0</t>
   </si>
   <si>
-    <t>7002.0</t>
+    <t>7002</t>
+  </si>
+  <si>
+    <t>9927</t>
   </si>
   <si>
     <t>9927.0</t>
   </si>
   <si>
-    <t>16043.0</t>
+    <t>16043</t>
   </si>
   <si>
     <t>62.0</t>
@@ -570,25 +687,34 @@
     <t>Occitanie</t>
   </si>
   <si>
+    <t>73094</t>
+  </si>
+  <si>
     <t>73094.0</t>
   </si>
   <si>
-    <t>133466.0</t>
+    <t>133466</t>
   </si>
   <si>
     <t>55.0</t>
   </si>
   <si>
+    <t>1612</t>
+  </si>
+  <si>
     <t>1612.0</t>
   </si>
   <si>
-    <t>8811.0</t>
+    <t>8811</t>
+  </si>
+  <si>
+    <t>5676</t>
   </si>
   <si>
     <t>5676.0</t>
   </si>
   <si>
-    <t>16508.0</t>
+    <t>16508</t>
   </si>
   <si>
     <t>84</t>
@@ -597,25 +723,34 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
+    <t>83928</t>
+  </si>
+  <si>
     <t>83928.0</t>
   </si>
   <si>
-    <t>182811.0</t>
+    <t>182811</t>
   </si>
   <si>
     <t>46.0</t>
   </si>
   <si>
+    <t>2310</t>
+  </si>
+  <si>
     <t>2310.0</t>
   </si>
   <si>
-    <t>10984.0</t>
+    <t>10984</t>
+  </si>
+  <si>
+    <t>11916</t>
   </si>
   <si>
     <t>11916.0</t>
   </si>
   <si>
-    <t>23902.0</t>
+    <t>23902</t>
   </si>
   <si>
     <t>93</t>
@@ -624,28 +759,37 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
+    <t>53173</t>
+  </si>
+  <si>
     <t>53173.0</t>
   </si>
   <si>
-    <t>109608.0</t>
+    <t>109608</t>
   </si>
   <si>
     <t>49.0</t>
   </si>
   <si>
+    <t>417</t>
+  </si>
+  <si>
     <t>417.0</t>
   </si>
   <si>
-    <t>6660.0</t>
+    <t>6660</t>
   </si>
   <si>
     <t>6.0</t>
   </si>
   <si>
+    <t>1923</t>
+  </si>
+  <si>
     <t>1923.0</t>
   </si>
   <si>
-    <t>14742.0</t>
+    <t>14742</t>
   </si>
   <si>
     <t>94</t>
@@ -654,19 +798,25 @@
     <t>Corse</t>
   </si>
   <si>
+    <t>1324</t>
+  </si>
+  <si>
     <t>1324.0</t>
   </si>
   <si>
-    <t>5991.0</t>
-  </si>
-  <si>
-    <t>343.0</t>
+    <t>5991</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>148</t>
   </si>
   <si>
     <t>148.0</t>
   </si>
   <si>
-    <t>783.0</t>
+    <t>783</t>
   </si>
 </sst>
 </file>
@@ -1080,30 +1230,30 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1112,42 +1262,42 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1156,31 +1306,31 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1254,13 +1404,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1272,107 +1422,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="L3" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="L4" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1446,13 +1596,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1464,107 +1614,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="L2" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="L3" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="M3" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="L4" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1638,13 +1788,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1656,107 +1806,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="M4" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1830,13 +1980,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1848,107 +1998,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="L4" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="M4" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2022,13 +2172,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2040,107 +2190,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="L3" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="L4" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="M4" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2214,13 +2364,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2232,107 +2382,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="L2" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="L4" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="M4" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2406,13 +2556,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2424,107 +2574,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="L2" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="L4" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2598,13 +2748,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2616,107 +2766,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="L2" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="M2" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="L3" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="M3" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="L4" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2790,13 +2940,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2808,107 +2958,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="L2" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="L4" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2982,13 +3132,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3000,107 +3150,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3174,13 +3324,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3192,107 +3342,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3366,13 +3516,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3384,107 +3534,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3558,13 +3708,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3576,107 +3726,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3750,13 +3900,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3768,107 +3918,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3942,13 +4092,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3960,107 +4110,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4134,13 +4284,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4152,107 +4302,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4326,13 +4476,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4344,107 +4494,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="M4" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="207">
   <si>
     <t>mesure</t>
   </si>
@@ -78,10 +78,10 @@
     <t>unite</t>
   </si>
   <si>
-    <t>Déployer le Pass culture</t>
-  </si>
-  <si>
-    <t>Nombre d’utilisateurs du Pass culture</t>
+    <t>Déployer le pass Culture</t>
+  </si>
+  <si>
+    <t>Nombre d’utilisateurs du pass Culture de 18 ans</t>
   </si>
   <si>
     <t>nb-utilisateurs-pass-culture</t>
@@ -93,730 +93,565 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>1995</t>
+    <t>2279.0</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>9898.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>utilisateurs</t>
+  </si>
+  <si>
+    <t>Apprendre à nager et à circuler à vélo en toute sécurité</t>
+  </si>
+  <si>
+    <t>Nombre d'enfants ayant suivi un cycle d’Aisance Aquatique</t>
+  </si>
+  <si>
+    <t>nb-cycle-aisance-aquatique</t>
+  </si>
+  <si>
+    <t>1975.0</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>622.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>enfants</t>
+  </si>
+  <si>
+    <t>Nombre d’attestations « savoir rouler à vélo » délivrées</t>
+  </si>
+  <si>
+    <t>nb-attestations-savoir-rouler-velo</t>
+  </si>
+  <si>
+    <t>548.0</t>
+  </si>
+  <si>
+    <t>1437.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>attestations</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>2053.0</t>
+  </si>
+  <si>
+    <t>8882.0</t>
+  </si>
+  <si>
+    <t>700.0</t>
+  </si>
+  <si>
+    <t>464.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>1130.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>2111.0</t>
+  </si>
+  <si>
+    <t>8952.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>612.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1333.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>10056.0</t>
+  </si>
+  <si>
+    <t>24238.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>914.0</t>
+  </si>
+  <si>
+    <t>1558.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>3133.0</t>
+  </si>
+  <si>
+    <t>3579.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>9437.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>740.0</t>
+  </si>
+  <si>
+    <t>224.0</t>
+  </si>
+  <si>
+    <t>1771.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>209159.0</t>
+  </si>
+  <si>
+    <t>280188.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>5413.0</t>
+  </si>
+  <si>
+    <t>17262.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>8343.0</t>
+  </si>
+  <si>
+    <t>38007.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>32849.0</t>
+  </si>
+  <si>
+    <t>55291.0</t>
+  </si>
+  <si>
+    <t>658.0</t>
+  </si>
+  <si>
+    <t>3301.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>5298.0</t>
+  </si>
+  <si>
+    <t>7554.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>42401.0</t>
+  </si>
+  <si>
+    <t>62023.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>524.0</t>
+  </si>
+  <si>
+    <t>3408.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>4211.0</t>
+  </si>
+  <si>
+    <t>7730.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>41775.0</t>
+  </si>
+  <si>
+    <t>77094.0</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>4294.0</t>
+  </si>
+  <si>
+    <t>3696.0</t>
+  </si>
+  <si>
+    <t>9687.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>90177.0</t>
+  </si>
+  <si>
+    <t>148568.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>7084.0</t>
+  </si>
+  <si>
+    <t>4301.0</t>
+  </si>
+  <si>
+    <t>18776.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>81941.0</t>
+  </si>
+  <si>
+    <t>125311.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>1216.0</t>
+  </si>
+  <si>
+    <t>7413.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>6684.0</t>
+  </si>
+  <si>
+    <t>15495.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>50010.0</t>
+  </si>
+  <si>
+    <t>87781.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>826.0</t>
+  </si>
+  <si>
+    <t>5173.0</t>
+  </si>
+  <si>
+    <t>3084.0</t>
+  </si>
+  <si>
+    <t>11745.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>96925.0</t>
+  </si>
+  <si>
+    <t>76565.0</t>
+  </si>
+  <si>
+    <t>4269.0</t>
+  </si>
+  <si>
+    <t>4188.0</t>
+  </si>
+  <si>
+    <t>9778.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>73802.0</t>
+  </si>
+  <si>
+    <t>131340.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>1270.0</t>
+  </si>
+  <si>
+    <t>7002.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>10710.0</t>
+  </si>
+  <si>
+    <t>16043.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>85632.0</t>
+  </si>
+  <si>
+    <t>133466.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>2670.0</t>
+  </si>
+  <si>
+    <t>8811.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>6812.0</t>
+  </si>
+  <si>
+    <t>16508.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>99995.0</t>
+  </si>
+  <si>
+    <t>182811.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>2645.0</t>
+  </si>
+  <si>
+    <t>10984.0</t>
+  </si>
+  <si>
+    <t>15115.0</t>
+  </si>
+  <si>
+    <t>23902.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>62638.0</t>
+  </si>
+  <si>
+    <t>109608.0</t>
+  </si>
+  <si>
+    <t>1162.0</t>
+  </si>
+  <si>
+    <t>6660.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>2181.0</t>
+  </si>
+  <si>
+    <t>14742.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>1324.0</t>
   </si>
   <si>
     <t>2021-11-30</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2019-01-31</t>
-  </si>
-  <si>
-    <t>1995.0</t>
-  </si>
-  <si>
-    <t>9898</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>utilisateurs</t>
-  </si>
-  <si>
-    <t>Apprendre à nager et à circuler à vélo en toute sécurité</t>
-  </si>
-  <si>
-    <t>Nombre d'enfants ayant suivi un cycle d’Aisance Aquatique</t>
-  </si>
-  <si>
-    <t>nb-cycle-aisance-aquatique</t>
-  </si>
-  <si>
-    <t>2363</t>
-  </si>
-  <si>
-    <t>2021-10-31</t>
-  </si>
-  <si>
-    <t>2019-03-31</t>
-  </si>
-  <si>
-    <t>2363.0</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>enfants</t>
-  </si>
-  <si>
-    <t>Nombre d’attestations « savoir rouler à vélo » délivrées</t>
-  </si>
-  <si>
-    <t>nb-attestations-savoir-rouler-velo</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>548.0</t>
-  </si>
-  <si>
-    <t>1437</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>attestations</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>1680</t>
-  </si>
-  <si>
-    <t>1680.0</t>
-  </si>
-  <si>
-    <t>8882</t>
+    <t>5991.0</t>
+  </si>
+  <si>
+    <t>343.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>783.0</t>
   </si>
   <si>
     <t>19.0</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>700.0</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1909.0</t>
-  </si>
-  <si>
-    <t>8952</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1333</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>8664</t>
-  </si>
-  <si>
-    <t>8664.0</t>
-  </si>
-  <si>
-    <t>24238</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>841.0</t>
-  </si>
-  <si>
-    <t>1558</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>3108</t>
-  </si>
-  <si>
-    <t>3108.0</t>
-  </si>
-  <si>
-    <t>3579</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>231.0</t>
-  </si>
-  <si>
-    <t>9437</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>1771</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>182381</t>
-  </si>
-  <si>
-    <t>182381.0</t>
-  </si>
-  <si>
-    <t>280188</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>4664</t>
-  </si>
-  <si>
-    <t>4664.0</t>
-  </si>
-  <si>
-    <t>17262</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>6916</t>
-  </si>
-  <si>
-    <t>6916.0</t>
-  </si>
-  <si>
-    <t>38007</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>27410</t>
-  </si>
-  <si>
-    <t>27410.0</t>
-  </si>
-  <si>
-    <t>55291</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>463</t>
-  </si>
-  <si>
-    <t>463.0</t>
-  </si>
-  <si>
-    <t>3301</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>5001</t>
-  </si>
-  <si>
-    <t>5001.0</t>
-  </si>
-  <si>
-    <t>7554</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>36691</t>
-  </si>
-  <si>
-    <t>36691.0</t>
-  </si>
-  <si>
-    <t>62023</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>377.0</t>
-  </si>
-  <si>
-    <t>3408</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>3045</t>
-  </si>
-  <si>
-    <t>3045.0</t>
-  </si>
-  <si>
-    <t>7730</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>35057</t>
-  </si>
-  <si>
-    <t>35057.0</t>
-  </si>
-  <si>
-    <t>77094</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>397.0</t>
-  </si>
-  <si>
-    <t>4294</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>3430.0</t>
-  </si>
-  <si>
-    <t>9687</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>75702</t>
-  </si>
-  <si>
-    <t>75702.0</t>
-  </si>
-  <si>
-    <t>148568</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>606.0</t>
-  </si>
-  <si>
-    <t>7084</t>
-  </si>
-  <si>
-    <t>3953</t>
-  </si>
-  <si>
-    <t>3953.0</t>
-  </si>
-  <si>
-    <t>18776</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>70729</t>
-  </si>
-  <si>
-    <t>70729.0</t>
-  </si>
-  <si>
-    <t>125311</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1100.0</t>
-  </si>
-  <si>
-    <t>7413</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>4821</t>
-  </si>
-  <si>
-    <t>4821.0</t>
-  </si>
-  <si>
-    <t>15495</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>41560</t>
-  </si>
-  <si>
-    <t>41560.0</t>
-  </si>
-  <si>
-    <t>87781</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>809.0</t>
-  </si>
-  <si>
-    <t>5173</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>2838</t>
-  </si>
-  <si>
-    <t>2838.0</t>
-  </si>
-  <si>
-    <t>11745</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>89565</t>
-  </si>
-  <si>
-    <t>89565.0</t>
-  </si>
-  <si>
-    <t>76565</t>
-  </si>
-  <si>
-    <t>4269</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>3311</t>
-  </si>
-  <si>
-    <t>3311.0</t>
-  </si>
-  <si>
-    <t>9778</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>61119</t>
-  </si>
-  <si>
-    <t>61119.0</t>
-  </si>
-  <si>
-    <t>131340</t>
-  </si>
-  <si>
-    <t>881</t>
-  </si>
-  <si>
-    <t>881.0</t>
-  </si>
-  <si>
-    <t>7002</t>
-  </si>
-  <si>
-    <t>9927</t>
-  </si>
-  <si>
-    <t>9927.0</t>
-  </si>
-  <si>
-    <t>16043</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>73094</t>
-  </si>
-  <si>
-    <t>73094.0</t>
-  </si>
-  <si>
-    <t>133466</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1612.0</t>
-  </si>
-  <si>
-    <t>8811</t>
-  </si>
-  <si>
-    <t>5676</t>
-  </si>
-  <si>
-    <t>5676.0</t>
-  </si>
-  <si>
-    <t>16508</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>83928</t>
-  </si>
-  <si>
-    <t>83928.0</t>
-  </si>
-  <si>
-    <t>182811</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2310.0</t>
-  </si>
-  <si>
-    <t>10984</t>
-  </si>
-  <si>
-    <t>11916</t>
-  </si>
-  <si>
-    <t>11916.0</t>
-  </si>
-  <si>
-    <t>23902</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>53173</t>
-  </si>
-  <si>
-    <t>53173.0</t>
-  </si>
-  <si>
-    <t>109608</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>417.0</t>
-  </si>
-  <si>
-    <t>6660</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>1923</t>
-  </si>
-  <si>
-    <t>1923.0</t>
-  </si>
-  <si>
-    <t>14742</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>1324</t>
-  </si>
-  <si>
-    <t>1324.0</t>
-  </si>
-  <si>
-    <t>5991</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>148.0</t>
-  </si>
-  <si>
-    <t>783</t>
   </si>
 </sst>
 </file>
@@ -1230,30 +1065,30 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1262,42 +1097,42 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1306,31 +1141,31 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1404,13 +1239,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1422,107 +1257,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="M2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1596,13 +1431,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1614,107 +1449,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="M2" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="L3" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="M3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L4" t="s">
-        <v>177</v>
-      </c>
-      <c r="M4" t="s">
-        <v>178</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1788,13 +1623,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1806,107 +1641,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="M3" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" t="s">
-        <v>191</v>
-      </c>
-      <c r="M4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1980,13 +1815,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1998,107 +1833,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" t="s">
-        <v>202</v>
-      </c>
-      <c r="M4" t="s">
-        <v>203</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2172,13 +2007,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2190,107 +2025,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="L2" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="L3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M4" t="s">
-        <v>215</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2364,13 +2199,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2382,107 +2217,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="L3" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>226</v>
-      </c>
-      <c r="L4" t="s">
-        <v>227</v>
-      </c>
-      <c r="M4" t="s">
-        <v>203</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2556,13 +2391,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2574,107 +2409,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="M2" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="L3" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" t="s">
-        <v>239</v>
-      </c>
-      <c r="M4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2748,13 +2583,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2766,107 +2601,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="L3" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="M3" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>251</v>
-      </c>
-      <c r="L4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M4" t="s">
-        <v>199</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2940,16 +2775,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -2958,107 +2793,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>260</v>
-      </c>
-      <c r="L4" t="s">
-        <v>261</v>
-      </c>
-      <c r="M4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3132,13 +2967,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3150,107 +2985,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3324,13 +3159,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3342,107 +3177,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3516,13 +3351,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3534,107 +3369,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3708,13 +3543,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3726,107 +3561,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3900,13 +3735,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3918,107 +3753,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4092,13 +3927,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4110,107 +3945,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4284,13 +4119,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4302,107 +4137,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4476,13 +4311,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4494,107 +4329,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="258">
   <si>
     <t>mesure</t>
   </si>
@@ -93,19 +93,22 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>2279</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
     <t>2279.0</t>
   </si>
   <si>
-    <t>2022-02-28</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2019-01-31</t>
-  </si>
-  <si>
-    <t>9898.0</t>
+    <t>9898</t>
   </si>
   <si>
     <t>23.0</t>
@@ -126,16 +129,19 @@
     <t>nb-cycle-aisance-aquatique</t>
   </si>
   <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
     <t>1975.0</t>
   </si>
   <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>2019-03-31</t>
-  </si>
-  <si>
-    <t>622.0</t>
+    <t>622</t>
   </si>
   <si>
     <t>100.0</t>
@@ -150,10 +156,13 @@
     <t>nb-attestations-savoir-rouler-velo</t>
   </si>
   <si>
+    <t>548</t>
+  </si>
+  <si>
     <t>548.0</t>
   </si>
   <si>
-    <t>1437.0</t>
+    <t>1437</t>
   </si>
   <si>
     <t>38.0</t>
@@ -168,22 +177,31 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>2053</t>
+  </si>
+  <si>
     <t>2053.0</t>
   </si>
   <si>
-    <t>8882.0</t>
+    <t>8882</t>
+  </si>
+  <si>
+    <t>700</t>
   </si>
   <si>
     <t>700.0</t>
   </si>
   <si>
-    <t>464.0</t>
+    <t>464</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>99.0</t>
   </si>
   <si>
-    <t>1130.0</t>
+    <t>1130</t>
   </si>
   <si>
     <t>9.0</t>
@@ -195,232 +213,301 @@
     <t>Guyane</t>
   </si>
   <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2111.0</t>
   </si>
   <si>
-    <t>8952.0</t>
+    <t>8952</t>
   </si>
   <si>
     <t>24.0</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>60.0</t>
   </si>
   <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>10056</t>
+  </si>
+  <si>
+    <t>10056.0</t>
+  </si>
+  <si>
+    <t>24238</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>914.0</t>
+  </si>
+  <si>
+    <t>1558</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>3133</t>
+  </si>
+  <si>
+    <t>3133.0</t>
+  </si>
+  <si>
+    <t>3579</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>9437</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>224.0</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>209159</t>
+  </si>
+  <si>
+    <t>209159.0</t>
+  </si>
+  <si>
+    <t>280188</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>5413</t>
+  </si>
+  <si>
+    <t>5413.0</t>
+  </si>
+  <si>
+    <t>17262</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>8343</t>
+  </si>
+  <si>
+    <t>8343.0</t>
+  </si>
+  <si>
+    <t>38007</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>32849</t>
+  </si>
+  <si>
+    <t>32849.0</t>
+  </si>
+  <si>
+    <t>55291</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>658.0</t>
+  </si>
+  <si>
+    <t>3301</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>5298</t>
+  </si>
+  <si>
+    <t>5298.0</t>
+  </si>
+  <si>
+    <t>7554</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>42401</t>
+  </si>
+  <si>
+    <t>42401.0</t>
+  </si>
+  <si>
+    <t>62023</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>524.0</t>
+  </si>
+  <si>
+    <t>3408</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>4211</t>
+  </si>
+  <si>
+    <t>4211.0</t>
+  </si>
+  <si>
+    <t>7730</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>41775</t>
+  </si>
+  <si>
+    <t>41775.0</t>
+  </si>
+  <si>
+    <t>77094</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>4294</t>
+  </si>
+  <si>
+    <t>3696</t>
+  </si>
+  <si>
+    <t>3696.0</t>
+  </si>
+  <si>
+    <t>9687</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>90177</t>
+  </si>
+  <si>
+    <t>90177.0</t>
+  </si>
+  <si>
+    <t>148568</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
     <t>612.0</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1333.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>10056.0</t>
-  </si>
-  <si>
-    <t>24238.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>914.0</t>
-  </si>
-  <si>
-    <t>1558.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>3133.0</t>
-  </si>
-  <si>
-    <t>3579.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>282.0</t>
-  </si>
-  <si>
-    <t>9437.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>740.0</t>
-  </si>
-  <si>
-    <t>224.0</t>
-  </si>
-  <si>
-    <t>1771.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>209159.0</t>
-  </si>
-  <si>
-    <t>280188.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>5413.0</t>
-  </si>
-  <si>
-    <t>17262.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>8343.0</t>
-  </si>
-  <si>
-    <t>38007.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>32849.0</t>
-  </si>
-  <si>
-    <t>55291.0</t>
-  </si>
-  <si>
-    <t>658.0</t>
-  </si>
-  <si>
-    <t>3301.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>5298.0</t>
-  </si>
-  <si>
-    <t>7554.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>42401.0</t>
-  </si>
-  <si>
-    <t>62023.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>524.0</t>
-  </si>
-  <si>
-    <t>3408.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>4211.0</t>
-  </si>
-  <si>
-    <t>7730.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>41775.0</t>
-  </si>
-  <si>
-    <t>77094.0</t>
-  </si>
-  <si>
-    <t>400.0</t>
-  </si>
-  <si>
-    <t>4294.0</t>
-  </si>
-  <si>
-    <t>3696.0</t>
-  </si>
-  <si>
-    <t>9687.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>90177.0</t>
-  </si>
-  <si>
-    <t>148568.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>7084.0</t>
+    <t>7084</t>
+  </si>
+  <si>
+    <t>4301</t>
   </si>
   <si>
     <t>4301.0</t>
   </si>
   <si>
-    <t>18776.0</t>
+    <t>18776</t>
   </si>
   <si>
     <t>44</t>
@@ -429,28 +516,37 @@
     <t>Grand Est</t>
   </si>
   <si>
+    <t>81941</t>
+  </si>
+  <si>
     <t>81941.0</t>
   </si>
   <si>
-    <t>125311.0</t>
+    <t>125311</t>
   </si>
   <si>
     <t>65.0</t>
   </si>
   <si>
+    <t>1216</t>
+  </si>
+  <si>
     <t>1216.0</t>
   </si>
   <si>
-    <t>7413.0</t>
+    <t>7413</t>
   </si>
   <si>
     <t>16.0</t>
   </si>
   <si>
+    <t>6684</t>
+  </si>
+  <si>
     <t>6684.0</t>
   </si>
   <si>
-    <t>15495.0</t>
+    <t>15495</t>
   </si>
   <si>
     <t>43.0</t>
@@ -462,25 +558,34 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
+    <t>50010</t>
+  </si>
+  <si>
     <t>50010.0</t>
   </si>
   <si>
-    <t>87781.0</t>
+    <t>87781</t>
   </si>
   <si>
     <t>57.0</t>
   </si>
   <si>
+    <t>826</t>
+  </si>
+  <si>
     <t>826.0</t>
   </si>
   <si>
-    <t>5173.0</t>
+    <t>5173</t>
+  </si>
+  <si>
+    <t>3084</t>
   </si>
   <si>
     <t>3084.0</t>
   </si>
   <si>
-    <t>11745.0</t>
+    <t>11745</t>
   </si>
   <si>
     <t>26.0</t>
@@ -492,19 +597,25 @@
     <t>Bretagne</t>
   </si>
   <si>
+    <t>96925</t>
+  </si>
+  <si>
     <t>96925.0</t>
   </si>
   <si>
-    <t>76565.0</t>
-  </si>
-  <si>
-    <t>4269.0</t>
+    <t>76565</t>
+  </si>
+  <si>
+    <t>4269</t>
+  </si>
+  <si>
+    <t>4188</t>
   </si>
   <si>
     <t>4188.0</t>
   </si>
   <si>
-    <t>9778.0</t>
+    <t>9778</t>
   </si>
   <si>
     <t>75</t>
@@ -513,28 +624,37 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
+    <t>73802</t>
+  </si>
+  <si>
     <t>73802.0</t>
   </si>
   <si>
-    <t>131340.0</t>
+    <t>131340</t>
   </si>
   <si>
     <t>56.0</t>
   </si>
   <si>
+    <t>1270</t>
+  </si>
+  <si>
     <t>1270.0</t>
   </si>
   <si>
-    <t>7002.0</t>
+    <t>7002</t>
   </si>
   <si>
     <t>18.0</t>
   </si>
   <si>
+    <t>10710</t>
+  </si>
+  <si>
     <t>10710.0</t>
   </si>
   <si>
-    <t>16043.0</t>
+    <t>16043</t>
   </si>
   <si>
     <t>67.0</t>
@@ -546,28 +666,37 @@
     <t>Occitanie</t>
   </si>
   <si>
+    <t>85632</t>
+  </si>
+  <si>
     <t>85632.0</t>
   </si>
   <si>
-    <t>133466.0</t>
+    <t>133466</t>
   </si>
   <si>
     <t>64.0</t>
   </si>
   <si>
+    <t>2670</t>
+  </si>
+  <si>
     <t>2670.0</t>
   </si>
   <si>
-    <t>8811.0</t>
+    <t>8811</t>
   </si>
   <si>
     <t>30.0</t>
   </si>
   <si>
+    <t>6812</t>
+  </si>
+  <si>
     <t>6812.0</t>
   </si>
   <si>
-    <t>16508.0</t>
+    <t>16508</t>
   </si>
   <si>
     <t>84</t>
@@ -576,25 +705,34 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
+    <t>99995</t>
+  </si>
+  <si>
     <t>99995.0</t>
   </si>
   <si>
-    <t>182811.0</t>
+    <t>182811</t>
   </si>
   <si>
     <t>55.0</t>
   </si>
   <si>
+    <t>2645</t>
+  </si>
+  <si>
     <t>2645.0</t>
   </si>
   <si>
-    <t>10984.0</t>
+    <t>10984</t>
+  </si>
+  <si>
+    <t>15115</t>
   </si>
   <si>
     <t>15115.0</t>
   </si>
   <si>
-    <t>23902.0</t>
+    <t>23902</t>
   </si>
   <si>
     <t>63.0</t>
@@ -606,25 +744,34 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
+    <t>62638</t>
+  </si>
+  <si>
     <t>62638.0</t>
   </si>
   <si>
-    <t>109608.0</t>
+    <t>109608</t>
+  </si>
+  <si>
+    <t>1162</t>
   </si>
   <si>
     <t>1162.0</t>
   </si>
   <si>
-    <t>6660.0</t>
+    <t>6660</t>
   </si>
   <si>
     <t>17.0</t>
   </si>
   <si>
+    <t>2181</t>
+  </si>
+  <si>
     <t>2181.0</t>
   </si>
   <si>
-    <t>14742.0</t>
+    <t>14742</t>
   </si>
   <si>
     <t>94</t>
@@ -633,22 +780,28 @@
     <t>Corse</t>
   </si>
   <si>
+    <t>1324</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
     <t>1324.0</t>
   </si>
   <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>5991.0</t>
-  </si>
-  <si>
-    <t>343.0</t>
+    <t>5991</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>148</t>
   </si>
   <si>
     <t>148.0</t>
   </si>
   <si>
-    <t>783.0</t>
+    <t>783</t>
   </si>
   <si>
     <t>19.0</t>
@@ -1065,30 +1218,30 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1097,42 +1250,42 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1141,31 +1294,31 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1239,13 +1392,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1257,107 +1410,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="M2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1431,13 +1584,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1449,107 +1602,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="L2" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="M3" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="L4" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1623,13 +1776,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1641,107 +1794,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="M3" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="L4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="M4" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1815,13 +1968,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1833,107 +1986,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="L2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="L4" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2007,13 +2160,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2025,107 +2178,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="M3" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="L4" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="M4" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2199,13 +2352,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2217,107 +2370,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L2" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="M2" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="L4" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2391,13 +2544,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2409,107 +2562,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="L2" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="M2" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="L4" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="M4" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2583,13 +2736,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2601,107 +2754,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="L3" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="M3" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="L4" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="M4" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2775,16 +2928,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -2793,107 +2946,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="L4" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="M4" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2967,13 +3120,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2985,107 +3138,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3159,13 +3312,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3177,107 +3330,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3351,13 +3504,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3369,107 +3522,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3543,13 +3696,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3561,107 +3714,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3735,13 +3888,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3753,107 +3906,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" t="s">
         <v>91</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3927,13 +4080,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3945,107 +4098,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4119,13 +4272,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4137,107 +4290,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4311,13 +4464,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4329,107 +4482,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="203">
   <si>
     <t>mesure</t>
   </si>
@@ -93,10 +93,10 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>2279</t>
-  </si>
-  <si>
-    <t>2022-02-28</t>
+    <t>6761.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
   </si>
   <si>
     <t>0</t>
@@ -105,16 +105,10 @@
     <t>2019-01-31</t>
   </si>
   <si>
-    <t>2279.0</t>
-  </si>
-  <si>
-    <t>9898</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
+    <t>9898.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
   </si>
   <si>
     <t>utilisateurs</t>
@@ -129,19 +123,13 @@
     <t>nb-cycle-aisance-aquatique</t>
   </si>
   <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
+    <t>1975.0</t>
   </si>
   <si>
     <t>2019-03-31</t>
   </si>
   <si>
-    <t>1975.0</t>
-  </si>
-  <si>
-    <t>622</t>
+    <t>622.0</t>
   </si>
   <si>
     <t>100.0</t>
@@ -156,655 +144,502 @@
     <t>nb-attestations-savoir-rouler-velo</t>
   </si>
   <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>548.0</t>
-  </si>
-  <si>
-    <t>1437</t>
+    <t>1067.0</t>
+  </si>
+  <si>
+    <t>1437.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>attestations</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>5756.0</t>
+  </si>
+  <si>
+    <t>8882.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>1149.0</t>
+  </si>
+  <si>
+    <t>464.0</t>
+  </si>
+  <si>
+    <t>790.0</t>
+  </si>
+  <si>
+    <t>1130.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>3588.0</t>
+  </si>
+  <si>
+    <t>8952.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>582.0</t>
+  </si>
+  <si>
+    <t>612.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1333.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>18445.0</t>
+  </si>
+  <si>
+    <t>24238.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>1269.0</t>
+  </si>
+  <si>
+    <t>1558.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>5910.0</t>
+  </si>
+  <si>
+    <t>3579.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>668.0</t>
+  </si>
+  <si>
+    <t>9437.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>740.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>870.0</t>
+  </si>
+  <si>
+    <t>1771.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>328395.0</t>
+  </si>
+  <si>
+    <t>280188.0</t>
+  </si>
+  <si>
+    <t>9831.0</t>
+  </si>
+  <si>
+    <t>17262.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>20438.0</t>
+  </si>
+  <si>
+    <t>38007.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>54847.0</t>
+  </si>
+  <si>
+    <t>55291.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>1251.0</t>
+  </si>
+  <si>
+    <t>3301.0</t>
   </si>
   <si>
     <t>38.0</t>
   </si>
   <si>
-    <t>attestations</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>2053</t>
-  </si>
-  <si>
-    <t>2053.0</t>
-  </si>
-  <si>
-    <t>8882</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>700.0</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2111.0</t>
-  </si>
-  <si>
-    <t>8952</t>
+    <t>12883.0</t>
+  </si>
+  <si>
+    <t>7554.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>65566.0</t>
+  </si>
+  <si>
+    <t>62023.0</t>
+  </si>
+  <si>
+    <t>2260.0</t>
+  </si>
+  <si>
+    <t>3408.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>12171.0</t>
+  </si>
+  <si>
+    <t>7730.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>69428.0</t>
+  </si>
+  <si>
+    <t>77094.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>521.0</t>
+  </si>
+  <si>
+    <t>4294.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>10939.0</t>
+  </si>
+  <si>
+    <t>9687.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>148682.0</t>
+  </si>
+  <si>
+    <t>148568.0</t>
+  </si>
+  <si>
+    <t>2992.0</t>
+  </si>
+  <si>
+    <t>7084.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>12419.0</t>
+  </si>
+  <si>
+    <t>18776.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>127587.0</t>
+  </si>
+  <si>
+    <t>125311.0</t>
+  </si>
+  <si>
+    <t>5085.0</t>
+  </si>
+  <si>
+    <t>7413.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>15903.0</t>
+  </si>
+  <si>
+    <t>15495.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>85319.0</t>
+  </si>
+  <si>
+    <t>87781.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>1561.0</t>
+  </si>
+  <si>
+    <t>5173.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>10106.0</t>
+  </si>
+  <si>
+    <t>11745.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>130260.0</t>
+  </si>
+  <si>
+    <t>76565.0</t>
+  </si>
+  <si>
+    <t>2600.0</t>
+  </si>
+  <si>
+    <t>4269.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>11057.0</t>
+  </si>
+  <si>
+    <t>9778.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>124190.0</t>
+  </si>
+  <si>
+    <t>131340.0</t>
+  </si>
+  <si>
+    <t>7407.0</t>
+  </si>
+  <si>
+    <t>7002.0</t>
+  </si>
+  <si>
+    <t>26266.0</t>
+  </si>
+  <si>
+    <t>16043.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>135750.0</t>
+  </si>
+  <si>
+    <t>133466.0</t>
+  </si>
+  <si>
+    <t>9978.0</t>
+  </si>
+  <si>
+    <t>8811.0</t>
+  </si>
+  <si>
+    <t>19197.0</t>
+  </si>
+  <si>
+    <t>16508.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>167552.0</t>
+  </si>
+  <si>
+    <t>182811.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>6791.0</t>
+  </si>
+  <si>
+    <t>10984.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>30633.0</t>
+  </si>
+  <si>
+    <t>23902.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>103148.0</t>
+  </si>
+  <si>
+    <t>109608.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>12599.0</t>
+  </si>
+  <si>
+    <t>6660.0</t>
+  </si>
+  <si>
+    <t>9995.0</t>
+  </si>
+  <si>
+    <t>14742.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>2772.0</t>
+  </si>
+  <si>
+    <t>5991.0</t>
   </si>
   <si>
     <t>24.0</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1333</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>10056</t>
-  </si>
-  <si>
-    <t>10056.0</t>
-  </si>
-  <si>
-    <t>24238</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>914.0</t>
-  </si>
-  <si>
-    <t>1558</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>3133</t>
-  </si>
-  <si>
-    <t>3133.0</t>
-  </si>
-  <si>
-    <t>3579</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>282.0</t>
-  </si>
-  <si>
-    <t>9437</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>224.0</t>
-  </si>
-  <si>
-    <t>1771</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>209159</t>
-  </si>
-  <si>
-    <t>209159.0</t>
-  </si>
-  <si>
-    <t>280188</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>5413</t>
-  </si>
-  <si>
-    <t>5413.0</t>
-  </si>
-  <si>
-    <t>17262</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>8343</t>
-  </si>
-  <si>
-    <t>8343.0</t>
-  </si>
-  <si>
-    <t>38007</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>32849</t>
-  </si>
-  <si>
-    <t>32849.0</t>
-  </si>
-  <si>
-    <t>55291</t>
-  </si>
-  <si>
-    <t>658</t>
-  </si>
-  <si>
-    <t>658.0</t>
-  </si>
-  <si>
-    <t>3301</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>5298</t>
-  </si>
-  <si>
-    <t>5298.0</t>
-  </si>
-  <si>
-    <t>7554</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>42401</t>
-  </si>
-  <si>
-    <t>42401.0</t>
-  </si>
-  <si>
-    <t>62023</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>524.0</t>
-  </si>
-  <si>
-    <t>3408</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>4211</t>
-  </si>
-  <si>
-    <t>4211.0</t>
-  </si>
-  <si>
-    <t>7730</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>41775</t>
-  </si>
-  <si>
-    <t>41775.0</t>
-  </si>
-  <si>
-    <t>77094</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>400.0</t>
-  </si>
-  <si>
-    <t>4294</t>
-  </si>
-  <si>
-    <t>3696</t>
-  </si>
-  <si>
-    <t>3696.0</t>
-  </si>
-  <si>
-    <t>9687</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>90177</t>
-  </si>
-  <si>
-    <t>90177.0</t>
-  </si>
-  <si>
-    <t>148568</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>612.0</t>
-  </si>
-  <si>
-    <t>7084</t>
-  </si>
-  <si>
-    <t>4301</t>
-  </si>
-  <si>
-    <t>4301.0</t>
-  </si>
-  <si>
-    <t>18776</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>81941</t>
-  </si>
-  <si>
-    <t>81941.0</t>
-  </si>
-  <si>
-    <t>125311</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>1216</t>
-  </si>
-  <si>
-    <t>1216.0</t>
-  </si>
-  <si>
-    <t>7413</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>6684</t>
-  </si>
-  <si>
-    <t>6684.0</t>
-  </si>
-  <si>
-    <t>15495</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>50010</t>
-  </si>
-  <si>
-    <t>50010.0</t>
-  </si>
-  <si>
-    <t>87781</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>826.0</t>
-  </si>
-  <si>
-    <t>5173</t>
-  </si>
-  <si>
-    <t>3084</t>
-  </si>
-  <si>
-    <t>3084.0</t>
-  </si>
-  <si>
-    <t>11745</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>96925</t>
-  </si>
-  <si>
-    <t>96925.0</t>
-  </si>
-  <si>
-    <t>76565</t>
-  </si>
-  <si>
-    <t>4269</t>
-  </si>
-  <si>
-    <t>4188</t>
-  </si>
-  <si>
-    <t>4188.0</t>
-  </si>
-  <si>
-    <t>9778</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>73802</t>
-  </si>
-  <si>
-    <t>73802.0</t>
-  </si>
-  <si>
-    <t>131340</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>1270</t>
-  </si>
-  <si>
-    <t>1270.0</t>
-  </si>
-  <si>
-    <t>7002</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>10710</t>
-  </si>
-  <si>
-    <t>10710.0</t>
-  </si>
-  <si>
-    <t>16043</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>85632</t>
-  </si>
-  <si>
-    <t>85632.0</t>
-  </si>
-  <si>
-    <t>133466</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>2670</t>
-  </si>
-  <si>
-    <t>2670.0</t>
-  </si>
-  <si>
-    <t>8811</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>6812</t>
-  </si>
-  <si>
-    <t>6812.0</t>
-  </si>
-  <si>
-    <t>16508</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>99995</t>
-  </si>
-  <si>
-    <t>99995.0</t>
-  </si>
-  <si>
-    <t>182811</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>2645</t>
-  </si>
-  <si>
-    <t>2645.0</t>
-  </si>
-  <si>
-    <t>10984</t>
-  </si>
-  <si>
-    <t>15115</t>
-  </si>
-  <si>
-    <t>15115.0</t>
-  </si>
-  <si>
-    <t>23902</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>62638</t>
-  </si>
-  <si>
-    <t>62638.0</t>
-  </si>
-  <si>
-    <t>109608</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>1162.0</t>
-  </si>
-  <si>
-    <t>6660</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>2181</t>
-  </si>
-  <si>
-    <t>2181.0</t>
-  </si>
-  <si>
-    <t>14742</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>1324</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>1324.0</t>
-  </si>
-  <si>
-    <t>5991</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>148.0</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>19.0</t>
+    <t>343.0</t>
+  </si>
+  <si>
+    <t>309.0</t>
+  </si>
+  <si>
+    <t>783.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
   </si>
 </sst>
 </file>
@@ -1218,30 +1053,30 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1250,42 +1085,42 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1294,31 +1129,31 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1392,13 +1227,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1410,107 +1245,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="L2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="M2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1584,13 +1419,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1602,107 +1437,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" t="s">
-        <v>171</v>
-      </c>
-      <c r="M4" t="s">
-        <v>172</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1776,13 +1611,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1794,107 +1629,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" t="s">
-        <v>181</v>
-      </c>
-      <c r="M3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>183</v>
-      </c>
-      <c r="L4" t="s">
-        <v>184</v>
-      </c>
-      <c r="M4" t="s">
-        <v>185</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1968,13 +1803,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1986,107 +1821,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" t="s">
-        <v>172</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2160,13 +1995,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2178,107 +2013,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="M2" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>202</v>
-      </c>
-      <c r="L3" t="s">
-        <v>203</v>
-      </c>
-      <c r="M3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" t="s">
-        <v>207</v>
-      </c>
-      <c r="M4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2352,13 +2187,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2370,107 +2205,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" t="s">
-        <v>217</v>
-      </c>
-      <c r="M3" t="s">
-        <v>218</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" t="s">
-        <v>221</v>
-      </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2544,13 +2379,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2562,107 +2397,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="M2" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>229</v>
-      </c>
-      <c r="L3" t="s">
-        <v>230</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M4" t="s">
-        <v>234</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2736,13 +2571,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2754,107 +2589,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L3" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3" t="s">
-        <v>243</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>245</v>
-      </c>
-      <c r="L4" t="s">
-        <v>246</v>
-      </c>
-      <c r="M4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2928,16 +2763,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -2946,107 +2781,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" t="s">
+        <v>199</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" t="s">
-        <v>253</v>
-      </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>255</v>
-      </c>
-      <c r="L4" t="s">
-        <v>256</v>
-      </c>
-      <c r="M4" t="s">
-        <v>257</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3120,13 +2955,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3138,107 +2973,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3312,13 +3147,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3330,107 +3165,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3504,13 +3339,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3522,107 +3357,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3696,13 +3531,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3714,107 +3549,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3888,13 +3723,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3906,107 +3741,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
         <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4080,13 +3915,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4098,107 +3933,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4272,13 +4107,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4290,107 +4125,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" t="s">
-        <v>136</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4464,13 +4299,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4482,107 +4317,107 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
